--- a/src/main/resources/static/modelos/aulas.xlsx
+++ b/src/main/resources/static/modelos/aulas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="23">
   <si>
     <t>Segunda</t>
   </si>
@@ -47,30 +47,9 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>Boxe (José)</t>
-  </si>
-  <si>
-    <t>Balé (Ana)</t>
-  </si>
-  <si>
-    <t>Jiu-Jitsu (Maria)</t>
-  </si>
-  <si>
-    <t>Pilates (Jorge)</t>
-  </si>
-  <si>
-    <t>Sertanejo (Carla)</t>
-  </si>
-  <si>
-    <t>Boxe (Juca)</t>
-  </si>
-  <si>
     <t>Fechado</t>
   </si>
   <si>
-    <t>Kung-Fu (Arnaldo)</t>
-  </si>
-  <si>
     <t>Início</t>
   </si>
   <si>
@@ -90,6 +69,30 @@
   </si>
   <si>
     <t>12:00</t>
+  </si>
+  <si>
+    <t>Dia da Semana</t>
+  </si>
+  <si>
+    <t>Aula</t>
+  </si>
+  <si>
+    <t>Balé</t>
+  </si>
+  <si>
+    <t>Boxe</t>
+  </si>
+  <si>
+    <t>Capoeira</t>
+  </si>
+  <si>
+    <t>Judô</t>
+  </si>
+  <si>
+    <t>Dança</t>
+  </si>
+  <si>
+    <t>Matricula do Professor</t>
   </si>
 </sst>
 </file>
@@ -420,166 +423,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="16.5703125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="32.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1234</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>23456</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E22" s="2">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="3"/>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
